--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2777,28 +2777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2495.179054814528</v>
+        <v>2599.323896860336</v>
       </c>
       <c r="AB2" t="n">
-        <v>3414.014062328307</v>
+        <v>3556.509629761556</v>
       </c>
       <c r="AC2" t="n">
-        <v>3088.185351818395</v>
+        <v>3217.081342289594</v>
       </c>
       <c r="AD2" t="n">
-        <v>2495179.054814528</v>
+        <v>2599323.896860336</v>
       </c>
       <c r="AE2" t="n">
-        <v>3414014.062328307</v>
+        <v>3556509.629761556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.034904128723263e-06</v>
+        <v>1.749556777618029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.57916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3088185.351818395</v>
+        <v>3217081.342289594</v>
       </c>
     </row>
     <row r="3">
@@ -2883,28 +2883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>845.9072994808591</v>
+        <v>897.8944691577428</v>
       </c>
       <c r="AB3" t="n">
-        <v>1157.407685945937</v>
+        <v>1228.538825009907</v>
       </c>
       <c r="AC3" t="n">
-        <v>1046.946320831145</v>
+        <v>1111.288803816031</v>
       </c>
       <c r="AD3" t="n">
-        <v>845907.2994808592</v>
+        <v>897894.4691577428</v>
       </c>
       <c r="AE3" t="n">
-        <v>1157407.685945937</v>
+        <v>1228538.825009907</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.941867614524296e-06</v>
+        <v>3.282823550447361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.43472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1046946.320831145</v>
+        <v>1111288.803816031</v>
       </c>
     </row>
     <row r="4">
@@ -2989,28 +2989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>643.8160949605261</v>
+        <v>695.8031751288586</v>
       </c>
       <c r="AB4" t="n">
-        <v>880.8975842865077</v>
+        <v>952.0286008809296</v>
       </c>
       <c r="AC4" t="n">
-        <v>796.8259551897272</v>
+        <v>861.1683273933866</v>
       </c>
       <c r="AD4" t="n">
-        <v>643816.0949605261</v>
+        <v>695803.1751288585</v>
       </c>
       <c r="AE4" t="n">
-        <v>880897.5842865077</v>
+        <v>952028.6008809296</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.265293390303754e-06</v>
+        <v>3.829590871560861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.944444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>796825.9551897272</v>
+        <v>861168.3273933865</v>
       </c>
     </row>
     <row r="5">
@@ -3095,28 +3095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>562.9229622221885</v>
+        <v>604.4956476944914</v>
       </c>
       <c r="AB5" t="n">
-        <v>770.2160313207678</v>
+        <v>827.0976136414142</v>
       </c>
       <c r="AC5" t="n">
-        <v>696.7076942965023</v>
+        <v>748.1605782342683</v>
       </c>
       <c r="AD5" t="n">
-        <v>562922.9622221885</v>
+        <v>604495.6476944913</v>
       </c>
       <c r="AE5" t="n">
-        <v>770216.0313207678</v>
+        <v>827097.6136414142</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.445168889417904e-06</v>
+        <v>4.133679327552266e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.28611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>696707.6942965023</v>
+        <v>748160.5782342684</v>
       </c>
     </row>
     <row r="6">
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>504.9687055361639</v>
+        <v>556.8704448499248</v>
       </c>
       <c r="AB6" t="n">
-        <v>690.9204605615911</v>
+        <v>761.9347100338155</v>
       </c>
       <c r="AC6" t="n">
-        <v>624.979981518549</v>
+        <v>689.2167306902693</v>
       </c>
       <c r="AD6" t="n">
-        <v>504968.7055361639</v>
+        <v>556870.4448499248</v>
       </c>
       <c r="AE6" t="n">
-        <v>690920.4605615911</v>
+        <v>761934.7100338155</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.552102174779358e-06</v>
+        <v>4.314455352079193e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.938888888888887</v>
       </c>
       <c r="AH6" t="n">
-        <v>624979.981518549</v>
+        <v>689216.7306902693</v>
       </c>
     </row>
     <row r="7">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>467.7034140502994</v>
+        <v>509.3613508686228</v>
       </c>
       <c r="AB7" t="n">
-        <v>639.9324447220007</v>
+        <v>696.9306716952964</v>
       </c>
       <c r="AC7" t="n">
-        <v>578.8581903485594</v>
+        <v>630.4165865370377</v>
       </c>
       <c r="AD7" t="n">
-        <v>467703.4140502994</v>
+        <v>509361.3508686228</v>
       </c>
       <c r="AE7" t="n">
-        <v>639932.4447220007</v>
+        <v>696930.6716952964</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.627524423799647e-06</v>
+        <v>4.441960406213464e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.711111111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>578858.1903485594</v>
+        <v>630416.5865370377</v>
       </c>
     </row>
     <row r="8">
@@ -3413,28 +3413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>455.8341553729472</v>
+        <v>497.4920921912706</v>
       </c>
       <c r="AB8" t="n">
-        <v>623.6924013649109</v>
+        <v>680.6906283382066</v>
       </c>
       <c r="AC8" t="n">
-        <v>564.1680739364263</v>
+        <v>615.7264701249045</v>
       </c>
       <c r="AD8" t="n">
-        <v>455834.1553729472</v>
+        <v>497492.0921912706</v>
       </c>
       <c r="AE8" t="n">
-        <v>623692.4013649109</v>
+        <v>680690.6283382066</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.650136510062983e-06</v>
+        <v>4.480187259967453e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.645833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>564168.0739364262</v>
+        <v>615726.4701249045</v>
       </c>
     </row>
     <row r="9">
@@ -3519,28 +3519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>456.1207123041258</v>
+        <v>497.778649122449</v>
       </c>
       <c r="AB9" t="n">
-        <v>624.084481200149</v>
+        <v>681.0827081734446</v>
       </c>
       <c r="AC9" t="n">
-        <v>564.5227342224766</v>
+        <v>616.081130410955</v>
       </c>
       <c r="AD9" t="n">
-        <v>456120.7123041258</v>
+        <v>497778.649122449</v>
       </c>
       <c r="AE9" t="n">
-        <v>624084.4812001489</v>
+        <v>681082.7081734446</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.655388349453177e-06</v>
+        <v>4.489065755032896e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.630555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>564522.7342224766</v>
+        <v>616081.1304109549</v>
       </c>
     </row>
   </sheetData>
@@ -3816,28 +3816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1506.987349894405</v>
+        <v>1587.541300444694</v>
       </c>
       <c r="AB2" t="n">
-        <v>2061.926575715226</v>
+        <v>2172.144044647615</v>
       </c>
       <c r="AC2" t="n">
-        <v>1865.139197261088</v>
+        <v>1964.83766564976</v>
       </c>
       <c r="AD2" t="n">
-        <v>1506987.349894405</v>
+        <v>1587541.300444694</v>
       </c>
       <c r="AE2" t="n">
-        <v>2061926.575715226</v>
+        <v>2172144.044647615</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364426124264726e-06</v>
+        <v>2.362900892376663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1865139.197261088</v>
+        <v>1964837.66564976</v>
       </c>
     </row>
     <row r="3">
@@ -3922,28 +3922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.4062786332012</v>
+        <v>708.8591178525018</v>
       </c>
       <c r="AB3" t="n">
-        <v>900.8605172609372</v>
+        <v>969.8923177029601</v>
       </c>
       <c r="AC3" t="n">
-        <v>814.8836538592296</v>
+        <v>877.3271561538064</v>
       </c>
       <c r="AD3" t="n">
-        <v>658406.2786332011</v>
+        <v>708859.1178525018</v>
       </c>
       <c r="AE3" t="n">
-        <v>900860.5172609371</v>
+        <v>969892.3177029601</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.198082789505113e-06</v>
+        <v>3.80662000856831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.53611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>814883.6538592296</v>
+        <v>877327.1561538064</v>
       </c>
     </row>
     <row r="4">
@@ -4028,28 +4028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.1543325707834</v>
+        <v>559.4313526002032</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.3298612960537</v>
+        <v>765.4386569970226</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.5369762881793</v>
+        <v>692.3862658731282</v>
       </c>
       <c r="AD4" t="n">
-        <v>519154.3325707833</v>
+        <v>559431.3526002032</v>
       </c>
       <c r="AE4" t="n">
-        <v>710329.8612960536</v>
+        <v>765438.6569970226</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499762672527477e-06</v>
+        <v>4.329066517124992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.384722222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>642536.9762881793</v>
+        <v>692386.2658731282</v>
       </c>
     </row>
     <row r="5">
@@ -4134,28 +4134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.0502572706602</v>
+        <v>475.4125286461008</v>
       </c>
       <c r="AB5" t="n">
-        <v>595.2549550604906</v>
+        <v>650.4803954141089</v>
       </c>
       <c r="AC5" t="n">
-        <v>538.4446575950932</v>
+        <v>588.3994594307544</v>
       </c>
       <c r="AD5" t="n">
-        <v>435050.2572706601</v>
+        <v>475412.5286461008</v>
       </c>
       <c r="AE5" t="n">
-        <v>595254.9550604906</v>
+        <v>650480.3954141089</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.693990791311759e-06</v>
+        <v>4.66542902663597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.780555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>538444.6575950932</v>
+        <v>588399.4594307544</v>
       </c>
     </row>
     <row r="6">
@@ -4240,28 +4240,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>419.7862173324807</v>
+        <v>460.1484887079212</v>
       </c>
       <c r="AB6" t="n">
-        <v>574.3700222151577</v>
+        <v>629.5954625687759</v>
       </c>
       <c r="AC6" t="n">
-        <v>519.5529534283314</v>
+        <v>569.5077552639927</v>
       </c>
       <c r="AD6" t="n">
-        <v>419786.2173324807</v>
+        <v>460148.4887079212</v>
       </c>
       <c r="AE6" t="n">
-        <v>574370.0222151577</v>
+        <v>629595.462568776</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.719948239976015e-06</v>
+        <v>4.710381902809933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.705555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>519552.9534283314</v>
+        <v>569507.7552639927</v>
       </c>
     </row>
     <row r="7">
@@ -4346,28 +4346,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>421.6311781344996</v>
+        <v>461.9934495099401</v>
       </c>
       <c r="AB7" t="n">
-        <v>576.8943789784059</v>
+        <v>632.1198193320242</v>
       </c>
       <c r="AC7" t="n">
-        <v>521.8363891250523</v>
+        <v>571.7911909607135</v>
       </c>
       <c r="AD7" t="n">
-        <v>421631.1781344996</v>
+        <v>461993.4495099401</v>
       </c>
       <c r="AE7" t="n">
-        <v>576894.378978406</v>
+        <v>632119.8193320242</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.719797324576804e-06</v>
+        <v>4.710120548878689e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.706944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>521836.3891250523</v>
+        <v>571791.1909607135</v>
       </c>
     </row>
   </sheetData>
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.7829796132783</v>
+        <v>521.3598076768551</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.9872627705446</v>
+        <v>713.3474896348757</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.8579520780847</v>
+        <v>645.2666064136124</v>
       </c>
       <c r="AD2" t="n">
-        <v>475782.9796132783</v>
+        <v>521359.8076768551</v>
       </c>
       <c r="AE2" t="n">
-        <v>650987.2627705446</v>
+        <v>713347.4896348757</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424449048656366e-06</v>
+        <v>4.587579316568678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.64722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>588857.9520780847</v>
+        <v>645266.6064136124</v>
       </c>
     </row>
     <row r="3">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.3308506259127</v>
+        <v>392.7070617307537</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.5475900340277</v>
+        <v>537.3191268728436</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.0167323185197</v>
+        <v>486.0381435362295</v>
       </c>
       <c r="AD3" t="n">
-        <v>356330.8506259127</v>
+        <v>392707.0617307536</v>
       </c>
       <c r="AE3" t="n">
-        <v>487547.5900340277</v>
+        <v>537319.1268728436</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.805705744228917e-06</v>
+        <v>5.308999027113339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.336111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>441016.7323185197</v>
+        <v>486038.1435362296</v>
       </c>
     </row>
   </sheetData>
@@ -5046,28 +5046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>730.8296156048021</v>
+        <v>787.6388080780447</v>
       </c>
       <c r="AB2" t="n">
-        <v>999.9533219976104</v>
+        <v>1077.682165384191</v>
       </c>
       <c r="AC2" t="n">
-        <v>904.5191803894597</v>
+        <v>974.8296920563417</v>
       </c>
       <c r="AD2" t="n">
-        <v>730829.6156048022</v>
+        <v>787638.8080780447</v>
       </c>
       <c r="AE2" t="n">
-        <v>999953.3219976104</v>
+        <v>1077682.165384191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.992033081389009e-06</v>
+        <v>3.629051654944424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>904519.1803894597</v>
+        <v>974829.6920563418</v>
       </c>
     </row>
     <row r="3">
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.516974335485</v>
+        <v>452.4182461053543</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.1604114840736</v>
+        <v>619.0186036057092</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.0314178266698</v>
+        <v>559.9403368756464</v>
       </c>
       <c r="AD3" t="n">
-        <v>414516.974335485</v>
+        <v>452418.2461053543</v>
       </c>
       <c r="AE3" t="n">
-        <v>567160.4114840736</v>
+        <v>619018.6036057093</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.689284935513686e-06</v>
+        <v>4.899293107641511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.319444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>513031.4178266698</v>
+        <v>559940.3368756464</v>
       </c>
     </row>
     <row r="4">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.0862726085993</v>
+        <v>417.3987447943184</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.3683652371284</v>
+        <v>571.1033769605893</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.0412791513604</v>
+        <v>516.5980722120936</v>
       </c>
       <c r="AD4" t="n">
-        <v>370086.2726085993</v>
+        <v>417398.7447943183</v>
       </c>
       <c r="AE4" t="n">
-        <v>506368.3652371284</v>
+        <v>571103.3769605893</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.802540031042717e-06</v>
+        <v>5.105619295544942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.983333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>458041.2791513603</v>
+        <v>516598.0722120936</v>
       </c>
     </row>
   </sheetData>
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.9824823485509</v>
+        <v>386.9103913293159</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.2837636684947</v>
+        <v>529.3878666985468</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.4959799078717</v>
+        <v>478.8638317013742</v>
       </c>
       <c r="AD2" t="n">
-        <v>342982.4823485509</v>
+        <v>386910.3913293159</v>
       </c>
       <c r="AE2" t="n">
-        <v>469283.7636684946</v>
+        <v>529387.8666985468</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747284505984196e-06</v>
+        <v>5.383792455376376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.841666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>424495.9799078717</v>
+        <v>478863.8317013743</v>
       </c>
     </row>
     <row r="3">
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.4352561127777</v>
+        <v>386.3631650935426</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.5350245907921</v>
+        <v>528.6391276208444</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.8186994368832</v>
+        <v>478.1865512303858</v>
       </c>
       <c r="AD3" t="n">
-        <v>342435.2561127777</v>
+        <v>386363.1650935427</v>
       </c>
       <c r="AE3" t="n">
-        <v>468535.0245907921</v>
+        <v>528639.1276208444</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762325661288159e-06</v>
+        <v>5.413268273504869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.794444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>423818.6994368832</v>
+        <v>478186.5512303858</v>
       </c>
     </row>
   </sheetData>
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1700.121191924572</v>
+        <v>1781.44159249868</v>
       </c>
       <c r="AB2" t="n">
-        <v>2326.180818844666</v>
+        <v>2437.446978513035</v>
       </c>
       <c r="AC2" t="n">
-        <v>2104.173386309415</v>
+        <v>2204.82045986207</v>
       </c>
       <c r="AD2" t="n">
-        <v>1700121.191924572</v>
+        <v>1781441.59249868</v>
       </c>
       <c r="AE2" t="n">
-        <v>2326180.818844666</v>
+        <v>2437446.978513035</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.278287072205607e-06</v>
+        <v>2.19926888525062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>2104173.386309415</v>
+        <v>2204820.45986207</v>
       </c>
     </row>
     <row r="3">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>701.7108614256551</v>
+        <v>752.5893938757358</v>
       </c>
       <c r="AB3" t="n">
-        <v>960.1117579009317</v>
+        <v>1029.726010601567</v>
       </c>
       <c r="AC3" t="n">
-        <v>868.4800392521817</v>
+        <v>931.4504053792861</v>
       </c>
       <c r="AD3" t="n">
-        <v>701710.8614256552</v>
+        <v>752589.3938757358</v>
       </c>
       <c r="AE3" t="n">
-        <v>960111.7579009318</v>
+        <v>1029726.010601567</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.127935938146879e-06</v>
+        <v>3.661073791897254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.762500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>868480.0392521817</v>
+        <v>931450.405379286</v>
       </c>
     </row>
     <row r="4">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>549.1771531792918</v>
+        <v>589.9653199939278</v>
       </c>
       <c r="AB4" t="n">
-        <v>751.4084089659806</v>
+        <v>807.2165782486871</v>
       </c>
       <c r="AC4" t="n">
-        <v>679.6950450225925</v>
+        <v>730.1769609562145</v>
       </c>
       <c r="AD4" t="n">
-        <v>549177.1531792919</v>
+        <v>589965.3199939277</v>
       </c>
       <c r="AE4" t="n">
-        <v>751408.4089659806</v>
+        <v>807216.5782486871</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439468870334112e-06</v>
+        <v>4.197060347177123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.515277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>679695.0450225924</v>
+        <v>730176.9609562146</v>
       </c>
     </row>
     <row r="5">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.3110283433488</v>
+        <v>520.0188790842859</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.1320535206879</v>
+        <v>711.5127719769282</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.8478715706702</v>
+        <v>643.6069916338969</v>
       </c>
       <c r="AD5" t="n">
-        <v>469311.0283433488</v>
+        <v>520018.8790842859</v>
       </c>
       <c r="AE5" t="n">
-        <v>642132.053520688</v>
+        <v>711512.7719769282</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.61310772500016e-06</v>
+        <v>4.495802733485298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>580847.8715706703</v>
+        <v>643606.9916338968</v>
       </c>
     </row>
     <row r="6">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.738841644358</v>
+        <v>474.4416676044225</v>
       </c>
       <c r="AB6" t="n">
-        <v>593.4606183450098</v>
+        <v>649.1520205055183</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.8215698573706</v>
+        <v>587.1978627590539</v>
       </c>
       <c r="AD6" t="n">
-        <v>433738.8416443581</v>
+        <v>474441.6676044225</v>
       </c>
       <c r="AE6" t="n">
-        <v>593460.6183450099</v>
+        <v>649152.0205055183</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.689383190874134e-06</v>
+        <v>4.627033239098709e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.723611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>536821.5698573706</v>
+        <v>587197.8627590539</v>
       </c>
     </row>
     <row r="7">
@@ -6488,28 +6488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>430.5725046089298</v>
+        <v>471.2753305689941</v>
       </c>
       <c r="AB7" t="n">
-        <v>589.1282963242057</v>
+        <v>644.8196984847142</v>
       </c>
       <c r="AC7" t="n">
-        <v>532.9027185697797</v>
+        <v>583.2790114714631</v>
       </c>
       <c r="AD7" t="n">
-        <v>430572.5046089298</v>
+        <v>471275.3305689942</v>
       </c>
       <c r="AE7" t="n">
-        <v>589128.2963242057</v>
+        <v>644819.6984847141</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.698655894568617e-06</v>
+        <v>4.642986751545829e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.697222222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>532902.7185697798</v>
+        <v>583279.0114714631</v>
       </c>
     </row>
   </sheetData>
@@ -6785,28 +6785,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.9007235538534</v>
+        <v>377.3707149940896</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.1718976786461</v>
+        <v>516.3352606758733</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.3947902510894</v>
+        <v>467.0569480780569</v>
       </c>
       <c r="AD2" t="n">
-        <v>342900.7235538533</v>
+        <v>377370.7149940896</v>
       </c>
       <c r="AE2" t="n">
-        <v>469171.8976786461</v>
+        <v>516335.2606758733</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.698938432883688e-06</v>
+        <v>5.410454935301374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.21111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>424394.7902510894</v>
+        <v>467056.9480780569</v>
       </c>
     </row>
   </sheetData>
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1058.423565264153</v>
+        <v>1117.309165238594</v>
       </c>
       <c r="AB2" t="n">
-        <v>1448.181816346592</v>
+        <v>1528.751692080946</v>
       </c>
       <c r="AC2" t="n">
-        <v>1309.969376330418</v>
+        <v>1382.849776205215</v>
       </c>
       <c r="AD2" t="n">
-        <v>1058423.565264153</v>
+        <v>1117309.165238594</v>
       </c>
       <c r="AE2" t="n">
-        <v>1448181.816346592</v>
+        <v>1528751.692080946</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.650055907742176e-06</v>
+        <v>2.922371623150513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.08888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1309969.376330418</v>
+        <v>1382849.776205215</v>
       </c>
     </row>
     <row r="3">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.1120506905911</v>
+        <v>577.0979685575942</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.5862064142073</v>
+        <v>789.610900346014</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.6235930301447</v>
+        <v>714.2515442428487</v>
       </c>
       <c r="AD3" t="n">
-        <v>528112.0506905911</v>
+        <v>577097.9685575942</v>
       </c>
       <c r="AE3" t="n">
-        <v>722586.2064142072</v>
+        <v>789610.900346014</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.425171691769197e-06</v>
+        <v>4.295159273113319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.904166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>653623.5930301447</v>
+        <v>714251.5442428486</v>
       </c>
     </row>
     <row r="4">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.1195483805338</v>
+        <v>466.0201253929653</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.7213681099728</v>
+        <v>637.6292949195819</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.2525217500272</v>
+        <v>576.7748499307924</v>
       </c>
       <c r="AD4" t="n">
-        <v>417119.5483805338</v>
+        <v>466020.1253929653</v>
       </c>
       <c r="AE4" t="n">
-        <v>570721.3681099728</v>
+        <v>637629.2949195819</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.70443105949488e-06</v>
+        <v>4.78974836425338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.984722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>516252.5217500273</v>
+        <v>576774.8499307923</v>
       </c>
     </row>
     <row r="5">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.2288690549142</v>
+        <v>432.4858760321741</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.0330866742746</v>
+        <v>591.7462555174781</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.683964016261</v>
+        <v>535.270823411975</v>
       </c>
       <c r="AD5" t="n">
-        <v>393228.8690549142</v>
+        <v>432485.8760321741</v>
       </c>
       <c r="AE5" t="n">
-        <v>538033.0866742746</v>
+        <v>591746.2555174781</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.770669640035604e-06</v>
+        <v>4.907061812374575e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.794444444444443</v>
       </c>
       <c r="AH5" t="n">
-        <v>486683.964016261</v>
+        <v>535270.8234119751</v>
       </c>
     </row>
   </sheetData>
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1335.487839120215</v>
+        <v>1415.420031816248</v>
       </c>
       <c r="AB2" t="n">
-        <v>1827.273379049546</v>
+        <v>1936.640131455723</v>
       </c>
       <c r="AC2" t="n">
-        <v>1652.880972347352</v>
+        <v>1751.809915401084</v>
       </c>
       <c r="AD2" t="n">
-        <v>1335487.839120215</v>
+        <v>1415420.031816248</v>
       </c>
       <c r="AE2" t="n">
-        <v>1827273.379049546</v>
+        <v>1936640.131455723</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.455236263754002e-06</v>
+        <v>2.537804973914277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.54027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1652880.972347352</v>
+        <v>1751809.915401084</v>
       </c>
     </row>
     <row r="3">
@@ -7803,28 +7803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>618.8834723337282</v>
+        <v>668.7238386022642</v>
       </c>
       <c r="AB3" t="n">
-        <v>846.783670058843</v>
+        <v>914.9774579892301</v>
       </c>
       <c r="AC3" t="n">
-        <v>765.9678250567715</v>
+        <v>827.6532935776648</v>
       </c>
       <c r="AD3" t="n">
-        <v>618883.4723337281</v>
+        <v>668723.8386022642</v>
       </c>
       <c r="AE3" t="n">
-        <v>846783.670058843</v>
+        <v>914977.4579892301</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266950963636888e-06</v>
+        <v>3.95336453222827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>765967.8250567715</v>
+        <v>827653.2935776649</v>
       </c>
     </row>
     <row r="4">
@@ -7909,28 +7909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.2298530742913</v>
+        <v>528.1533685035732</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.0176241572046</v>
+        <v>722.6427392687426</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.2629596762644</v>
+        <v>653.6747304683876</v>
       </c>
       <c r="AD4" t="n">
-        <v>488229.8530742913</v>
+        <v>528153.3685035732</v>
       </c>
       <c r="AE4" t="n">
-        <v>668017.6241572046</v>
+        <v>722642.7392687426</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566164115020144e-06</v>
+        <v>4.475166141186356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.245833333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>604262.9596762643</v>
+        <v>653674.7304683876</v>
       </c>
     </row>
     <row r="5">
@@ -8015,28 +8015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>422.6429662544343</v>
+        <v>462.6517330297369</v>
       </c>
       <c r="AB5" t="n">
-        <v>578.2787521210423</v>
+        <v>633.0205118852296</v>
       </c>
       <c r="AC5" t="n">
-        <v>523.0886396379353</v>
+        <v>572.6059226807708</v>
       </c>
       <c r="AD5" t="n">
-        <v>422642.9662544343</v>
+        <v>462651.7330297369</v>
       </c>
       <c r="AE5" t="n">
-        <v>578278.7521210423</v>
+        <v>633020.5118852295</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.704039828870372e-06</v>
+        <v>4.715609346943518e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.825000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>523088.6396379353</v>
+        <v>572605.9226807709</v>
       </c>
     </row>
     <row r="6">
@@ -8121,28 +8121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>413.1239677867184</v>
+        <v>453.132734562021</v>
       </c>
       <c r="AB6" t="n">
-        <v>565.2544384689394</v>
+        <v>619.9961982331266</v>
       </c>
       <c r="AC6" t="n">
-        <v>511.3073482010501</v>
+        <v>560.8246312438857</v>
       </c>
       <c r="AD6" t="n">
-        <v>413123.9677867184</v>
+        <v>453132.734562021</v>
       </c>
       <c r="AE6" t="n">
-        <v>565254.4384689394</v>
+        <v>619996.1982331267</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.731310273930251e-06</v>
+        <v>4.763166621894383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.747222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>511307.3482010501</v>
+        <v>560824.6312438857</v>
       </c>
     </row>
   </sheetData>
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2183.747948578973</v>
+        <v>2276.699525147599</v>
       </c>
       <c r="AB2" t="n">
-        <v>2987.900283405893</v>
+        <v>3115.08073120141</v>
       </c>
       <c r="AC2" t="n">
-        <v>2702.739273902021</v>
+        <v>2817.781798258695</v>
       </c>
       <c r="AD2" t="n">
-        <v>2183747.948578973</v>
+        <v>2276699.525147599</v>
       </c>
       <c r="AE2" t="n">
-        <v>2987900.283405893</v>
+        <v>3115080.73120141</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.114202645118568e-06</v>
+        <v>1.894070651385038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.33194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2702739.273902021</v>
+        <v>2817781.798258695</v>
       </c>
     </row>
     <row r="3">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>797.1504301334593</v>
+        <v>848.7523054066854</v>
       </c>
       <c r="AB3" t="n">
-        <v>1090.696386303558</v>
+        <v>1161.300348566455</v>
       </c>
       <c r="AC3" t="n">
-        <v>986.6018539967389</v>
+        <v>1050.467473194548</v>
       </c>
       <c r="AD3" t="n">
-        <v>797150.4301334593</v>
+        <v>848752.3054066855</v>
       </c>
       <c r="AE3" t="n">
-        <v>1090696.386303558</v>
+        <v>1161300.348566455</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.005035378935155e-06</v>
+        <v>3.408427257705554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.18611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>986601.8539967389</v>
+        <v>1050467.473194548</v>
       </c>
     </row>
     <row r="4">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>611.9601030455311</v>
+        <v>663.5618888102064</v>
       </c>
       <c r="AB4" t="n">
-        <v>837.3108107612355</v>
+        <v>907.9146505545839</v>
       </c>
       <c r="AC4" t="n">
-        <v>757.3990421552862</v>
+        <v>821.2645505718691</v>
       </c>
       <c r="AD4" t="n">
-        <v>611960.1030455311</v>
+        <v>663561.8888102063</v>
       </c>
       <c r="AE4" t="n">
-        <v>837310.8107612355</v>
+        <v>907914.6505545839</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.320458986402402e-06</v>
+        <v>3.944626485265395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.801388888888887</v>
       </c>
       <c r="AH4" t="n">
-        <v>757399.0421552862</v>
+        <v>821264.5505718691</v>
       </c>
     </row>
     <row r="5">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>535.7406504468313</v>
+        <v>577.0051003962081</v>
       </c>
       <c r="AB5" t="n">
-        <v>733.0239931507637</v>
+        <v>789.4838340305513</v>
       </c>
       <c r="AC5" t="n">
-        <v>663.0652120500898</v>
+        <v>714.136604958195</v>
       </c>
       <c r="AD5" t="n">
-        <v>535740.6504468312</v>
+        <v>577005.1003962081</v>
       </c>
       <c r="AE5" t="n">
-        <v>733023.9931507637</v>
+        <v>789483.8340305513</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.497654998988897e-06</v>
+        <v>4.24584796275239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.176388888888887</v>
       </c>
       <c r="AH5" t="n">
-        <v>663065.2120500898</v>
+        <v>714136.604958195</v>
       </c>
     </row>
     <row r="6">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.3885365953532</v>
+        <v>539.9049815054568</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.2347419513446</v>
+        <v>738.7218146224953</v>
       </c>
       <c r="AC6" t="n">
-        <v>604.4593560528583</v>
+        <v>668.2192414375022</v>
       </c>
       <c r="AD6" t="n">
-        <v>488388.5365953532</v>
+        <v>539904.9815054568</v>
       </c>
       <c r="AE6" t="n">
-        <v>668234.7419513447</v>
+        <v>738721.8146224953</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.576180036931793e-06</v>
+        <v>4.379335322900155e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.927777777777777</v>
       </c>
       <c r="AH6" t="n">
-        <v>604459.3560528583</v>
+        <v>668219.2414375022</v>
       </c>
     </row>
     <row r="7">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>448.322817457254</v>
+        <v>489.6725187526515</v>
       </c>
       <c r="AB7" t="n">
-        <v>613.4150574518181</v>
+        <v>669.991542984255</v>
       </c>
       <c r="AC7" t="n">
-        <v>554.8715853020561</v>
+        <v>606.0484904608735</v>
       </c>
       <c r="AD7" t="n">
-        <v>448322.817457254</v>
+        <v>489672.5187526515</v>
       </c>
       <c r="AE7" t="n">
-        <v>613415.0574518181</v>
+        <v>669991.542984255</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663086960947243e-06</v>
+        <v>4.527071333850209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.669444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>554871.5853020562</v>
+        <v>606048.4904608735</v>
       </c>
     </row>
     <row r="8">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>448.1194289354464</v>
+        <v>489.4691302308439</v>
       </c>
       <c r="AB8" t="n">
-        <v>613.1367723034125</v>
+        <v>669.7132578358495</v>
       </c>
       <c r="AC8" t="n">
-        <v>554.6198592976388</v>
+        <v>605.7967644564561</v>
       </c>
       <c r="AD8" t="n">
-        <v>448119.4289354464</v>
+        <v>489469.1302308438</v>
       </c>
       <c r="AE8" t="n">
-        <v>613136.7723034126</v>
+        <v>669713.2578358495</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.66514566980717e-06</v>
+        <v>4.530571002468314e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.663888888888888</v>
       </c>
       <c r="AH8" t="n">
-        <v>554619.8592976388</v>
+        <v>605796.7644564561</v>
       </c>
     </row>
   </sheetData>
@@ -9351,28 +9351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>822.9661724980017</v>
+        <v>880.6150506649257</v>
       </c>
       <c r="AB2" t="n">
-        <v>1126.018623916899</v>
+        <v>1204.896362313892</v>
       </c>
       <c r="AC2" t="n">
-        <v>1018.552986827333</v>
+        <v>1089.902744577319</v>
       </c>
       <c r="AD2" t="n">
-        <v>822966.1724980017</v>
+        <v>880615.0506649257</v>
       </c>
       <c r="AE2" t="n">
-        <v>1126018.623916899</v>
+        <v>1204896.362313892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871013866540865e-06</v>
+        <v>3.373880757986914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1018552.986827333</v>
+        <v>1089902.744577319</v>
       </c>
     </row>
     <row r="3">
@@ -9457,28 +9457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.6243776867007</v>
+        <v>491.1423039858882</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.3006419291909</v>
+        <v>672.0025679827177</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.1954578573782</v>
+        <v>607.8675860559742</v>
       </c>
       <c r="AD3" t="n">
-        <v>452624.3776867007</v>
+        <v>491142.3039858883</v>
       </c>
       <c r="AE3" t="n">
-        <v>619300.6419291908</v>
+        <v>672002.5679827177</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.594856489851888e-06</v>
+        <v>4.679140297893425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.515277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>560195.4578573782</v>
+        <v>607867.5860559742</v>
       </c>
     </row>
     <row r="4">
@@ -9563,28 +9563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.474571792089</v>
+        <v>426.3446218887158</v>
       </c>
       <c r="AB4" t="n">
-        <v>517.8456062456211</v>
+        <v>583.3435206653871</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.4231483864114</v>
+        <v>527.6700337808552</v>
       </c>
       <c r="AD4" t="n">
-        <v>378474.571792089</v>
+        <v>426344.6218887158</v>
       </c>
       <c r="AE4" t="n">
-        <v>517845.6062456211</v>
+        <v>583343.5206653872</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.789578109837095e-06</v>
+        <v>5.030269457639703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.920833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>468423.1483864114</v>
+        <v>527670.0337808552</v>
       </c>
     </row>
     <row r="5">
@@ -9669,28 +9669,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.9023037086009</v>
+        <v>428.7723538052276</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.1673361577657</v>
+        <v>586.6652505775318</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.4278570578181</v>
+        <v>530.674742452262</v>
       </c>
       <c r="AD5" t="n">
-        <v>380902.3037086009</v>
+        <v>428772.3538052276</v>
       </c>
       <c r="AE5" t="n">
-        <v>521167.3361577657</v>
+        <v>586665.2505775318</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.787828160637882e-06</v>
+        <v>5.027113885125644e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.925000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>471427.8570578181</v>
+        <v>530674.742452262</v>
       </c>
     </row>
   </sheetData>
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.7400164319952</v>
+        <v>604.9133675833559</v>
       </c>
       <c r="AB2" t="n">
-        <v>764.4927403520811</v>
+        <v>827.6691564218597</v>
       </c>
       <c r="AC2" t="n">
-        <v>691.5306261851779</v>
+        <v>748.6775737739134</v>
       </c>
       <c r="AD2" t="n">
-        <v>558740.0164319952</v>
+        <v>604913.3675833559</v>
       </c>
       <c r="AE2" t="n">
-        <v>764492.7403520811</v>
+        <v>827669.1564218597</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265823655692103e-06</v>
+        <v>4.227302687444582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.15694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>691530.6261851778</v>
+        <v>748677.5737739134</v>
       </c>
     </row>
     <row r="3">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.4662199917884</v>
+        <v>400.3878506436729</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.3105171906986</v>
+        <v>547.8283211159916</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.8478994097122</v>
+        <v>495.5443550305583</v>
       </c>
       <c r="AD3" t="n">
-        <v>363466.2199917884</v>
+        <v>400387.8506436729</v>
       </c>
       <c r="AE3" t="n">
-        <v>497310.5171906986</v>
+        <v>547828.3211159916</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.808872300444756e-06</v>
+        <v>5.240457876997417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>449847.8994097122</v>
+        <v>495544.3550305583</v>
       </c>
     </row>
     <row r="4">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.7435836499888</v>
+        <v>401.6652143018732</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.0582625011558</v>
+        <v>549.5760664264486</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.4288423607153</v>
+        <v>497.1252979815613</v>
       </c>
       <c r="AD4" t="n">
-        <v>364743.5836499888</v>
+        <v>401665.2143018732</v>
       </c>
       <c r="AE4" t="n">
-        <v>499058.2625011557</v>
+        <v>549576.0664264486</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.813015179943937e-06</v>
+        <v>5.248187165901543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.181944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>451428.8423607153</v>
+        <v>497125.2979815613</v>
       </c>
     </row>
   </sheetData>
@@ -18000,28 +18000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>404.2508629897084</v>
+        <v>440.1182430842303</v>
       </c>
       <c r="AB2" t="n">
-        <v>553.1138650319141</v>
+        <v>602.1891968343715</v>
       </c>
       <c r="AC2" t="n">
-        <v>500.3254540534526</v>
+        <v>544.7171050663443</v>
       </c>
       <c r="AD2" t="n">
-        <v>404250.8629897084</v>
+        <v>440118.2430842303</v>
       </c>
       <c r="AE2" t="n">
-        <v>553113.8650319141</v>
+        <v>602189.1968343715</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608398600299019e-06</v>
+        <v>5.016047237205579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.127777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>500325.4540534526</v>
+        <v>544717.1050663443</v>
       </c>
     </row>
     <row r="3">
@@ -18106,28 +18106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.1068029464821</v>
+        <v>385.0594343870246</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.6633292965401</v>
+        <v>526.8553057516467</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.0758115531709</v>
+        <v>476.5729748167746</v>
       </c>
       <c r="AD3" t="n">
-        <v>349106.8029464821</v>
+        <v>385059.4343870246</v>
       </c>
       <c r="AE3" t="n">
-        <v>477663.3292965401</v>
+        <v>526855.3057516468</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.791651630249049e-06</v>
+        <v>5.368449609482969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.529166666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>432075.8115531708</v>
+        <v>476572.9748167746</v>
       </c>
     </row>
   </sheetData>
@@ -18403,28 +18403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.9639512118128</v>
+        <v>391.2056700032854</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.5219203159008</v>
+        <v>535.2648564745933</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.9977230085779</v>
+        <v>484.1799298216017</v>
       </c>
       <c r="AD2" t="n">
-        <v>340963.9512118128</v>
+        <v>391205.6700032854</v>
       </c>
       <c r="AE2" t="n">
-        <v>466521.9203159008</v>
+        <v>535264.8564745933</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.570170589809327e-06</v>
+        <v>5.301232114327196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.943055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>421997.7230085779</v>
+        <v>484179.9298216017</v>
       </c>
     </row>
   </sheetData>
@@ -18700,28 +18700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1183.088332531859</v>
+        <v>1252.45991432317</v>
       </c>
       <c r="AB2" t="n">
-        <v>1618.753650743641</v>
+        <v>1713.670909408706</v>
       </c>
       <c r="AC2" t="n">
-        <v>1464.262074251685</v>
+        <v>1550.120562966966</v>
       </c>
       <c r="AD2" t="n">
-        <v>1183088.332531859</v>
+        <v>1252459.91432317</v>
       </c>
       <c r="AE2" t="n">
-        <v>1618753.650743641</v>
+        <v>1713670.909408706</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550853057858069e-06</v>
+        <v>2.724787644953014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.78055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1464262.074251685</v>
+        <v>1550120.562966966</v>
       </c>
     </row>
     <row r="3">
@@ -18806,28 +18806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.1954221599121</v>
+        <v>617.8364155492127</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.1124847809411</v>
+        <v>845.3510407733839</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.6098195667934</v>
+        <v>764.6719238996089</v>
       </c>
       <c r="AD3" t="n">
-        <v>578195.4221599122</v>
+        <v>617836.4155492127</v>
       </c>
       <c r="AE3" t="n">
-        <v>791112.4847809412</v>
+        <v>845351.0407733839</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.343128322756491e-06</v>
+        <v>4.116784031882578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.120833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>715609.8195667934</v>
+        <v>764671.9238996089</v>
       </c>
     </row>
     <row r="4">
@@ -18912,28 +18912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.8880832371755</v>
+        <v>497.4437357719045</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.5026760816502</v>
+        <v>680.6244649518953</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.7101399784452</v>
+        <v>615.6666212793217</v>
       </c>
       <c r="AD4" t="n">
-        <v>457888.0832371755</v>
+        <v>497443.7357719045</v>
       </c>
       <c r="AE4" t="n">
-        <v>626502.6760816502</v>
+        <v>680624.4649518953</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.63455760061969e-06</v>
+        <v>4.628813776851425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.112499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>566710.1399784453</v>
+        <v>615666.6212793217</v>
       </c>
     </row>
     <row r="5">
@@ -19018,28 +19018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.2218144222506</v>
+        <v>443.8627183030002</v>
       </c>
       <c r="AB5" t="n">
-        <v>553.0741195003861</v>
+        <v>607.3125530232804</v>
       </c>
       <c r="AC5" t="n">
-        <v>500.2895017796706</v>
+        <v>549.3514953312595</v>
       </c>
       <c r="AD5" t="n">
-        <v>404221.8144222507</v>
+        <v>443862.7183030003</v>
       </c>
       <c r="AE5" t="n">
-        <v>553074.1195003862</v>
+        <v>607312.5530232805</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.745805418938113e-06</v>
+        <v>4.824271805157907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.783333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>500289.5017796706</v>
+        <v>549351.4953312594</v>
       </c>
     </row>
     <row r="6">
@@ -19124,28 +19124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.5084081401542</v>
+        <v>448.1493120209038</v>
       </c>
       <c r="AB6" t="n">
-        <v>558.9392261363898</v>
+        <v>613.177659659284</v>
       </c>
       <c r="AC6" t="n">
-        <v>505.5948508700629</v>
+        <v>554.6568444216518</v>
       </c>
       <c r="AD6" t="n">
-        <v>408508.4081401542</v>
+        <v>448149.3120209038</v>
       </c>
       <c r="AE6" t="n">
-        <v>558939.2261363899</v>
+        <v>613177.6596592841</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.734265188822094e-06</v>
+        <v>4.80399607608047e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.815277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>505594.8508700629</v>
+        <v>554656.8444216518</v>
       </c>
     </row>
   </sheetData>
@@ -19421,28 +19421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1923.212153548519</v>
+        <v>2015.362722299667</v>
       </c>
       <c r="AB2" t="n">
-        <v>2631.423714617159</v>
+        <v>2757.50818817865</v>
       </c>
       <c r="AC2" t="n">
-        <v>2380.284328520475</v>
+        <v>2494.335476885929</v>
       </c>
       <c r="AD2" t="n">
-        <v>1923212.153548519</v>
+        <v>2015362.722299667</v>
       </c>
       <c r="AE2" t="n">
-        <v>2631423.714617159</v>
+        <v>2757508.188178651</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.194938335995896e-06</v>
+        <v>2.043211387762317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2380284.328520475</v>
+        <v>2494335.476885929</v>
       </c>
     </row>
     <row r="3">
@@ -19527,28 +19527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>746.575823140521</v>
+        <v>807.9525820658712</v>
       </c>
       <c r="AB3" t="n">
-        <v>1021.49797782163</v>
+        <v>1105.476367134794</v>
       </c>
       <c r="AC3" t="n">
-        <v>924.0076444997493</v>
+        <v>999.9712542012747</v>
       </c>
       <c r="AD3" t="n">
-        <v>746575.8231405211</v>
+        <v>807952.5820658712</v>
       </c>
       <c r="AE3" t="n">
-        <v>1021497.97782163</v>
+        <v>1105476.367134794</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.060412348554283e-06</v>
+        <v>3.523075498739938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.994444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>924007.6444997493</v>
+        <v>999971.2542012747</v>
       </c>
     </row>
     <row r="4">
@@ -19633,28 +19633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.3012594428102</v>
+        <v>632.5054524503164</v>
       </c>
       <c r="AB4" t="n">
-        <v>795.3620283712729</v>
+        <v>865.4218642137083</v>
       </c>
       <c r="AC4" t="n">
-        <v>719.4537926811358</v>
+        <v>782.8272161203662</v>
       </c>
       <c r="AD4" t="n">
-        <v>581301.2594428102</v>
+        <v>632505.4524503164</v>
       </c>
       <c r="AE4" t="n">
-        <v>795362.028371273</v>
+        <v>865421.8642137083</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.376532032428616e-06</v>
+        <v>4.063604929030205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.665277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>719453.7926811358</v>
+        <v>782827.2161203662</v>
       </c>
     </row>
     <row r="5">
@@ -19739,28 +19739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>507.0322536821861</v>
+        <v>547.9786294258279</v>
       </c>
       <c r="AB5" t="n">
-        <v>693.743898172298</v>
+        <v>749.768535891355</v>
       </c>
       <c r="AC5" t="n">
-        <v>627.5339542064094</v>
+        <v>678.2116791326326</v>
       </c>
       <c r="AD5" t="n">
-        <v>507032.2536821861</v>
+        <v>547978.6294258279</v>
       </c>
       <c r="AE5" t="n">
-        <v>693743.898172298</v>
+        <v>749768.535891355</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.556388118985636e-06</v>
+        <v>4.371138793449574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>627533.9542064094</v>
+        <v>678211.6791326327</v>
       </c>
     </row>
     <row r="6">
@@ -19845,28 +19845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>457.496721550891</v>
+        <v>498.5283486405532</v>
       </c>
       <c r="AB6" t="n">
-        <v>625.9671977568169</v>
+        <v>682.1084801285232</v>
       </c>
       <c r="AC6" t="n">
-        <v>566.2257669533855</v>
+        <v>617.0090041303208</v>
       </c>
       <c r="AD6" t="n">
-        <v>457496.721550891</v>
+        <v>498528.3486405532</v>
       </c>
       <c r="AE6" t="n">
-        <v>625967.1977568169</v>
+        <v>682108.4801285232</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.640162800687793e-06</v>
+        <v>4.514384163109049e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.799999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>566225.7669533854</v>
+        <v>617009.0041303209</v>
       </c>
     </row>
     <row r="7">
@@ -19951,28 +19951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>438.4681257640177</v>
+        <v>479.4997528536798</v>
       </c>
       <c r="AB7" t="n">
-        <v>599.9314335188183</v>
+        <v>656.0727158905247</v>
       </c>
       <c r="AC7" t="n">
-        <v>542.6748195128367</v>
+        <v>593.4580566897722</v>
       </c>
       <c r="AD7" t="n">
-        <v>438468.1257640176</v>
+        <v>479499.7528536798</v>
       </c>
       <c r="AE7" t="n">
-        <v>599931.4335188182</v>
+        <v>656072.7158905247</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.683013921062878e-06</v>
+        <v>4.58765480351894e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.67638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>542674.8195128368</v>
+        <v>593458.0566897722</v>
       </c>
     </row>
     <row r="8">
@@ -20057,28 +20057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>440.282212200928</v>
+        <v>481.3138392905902</v>
       </c>
       <c r="AB8" t="n">
-        <v>602.4135466136443</v>
+        <v>658.5548289853507</v>
       </c>
       <c r="AC8" t="n">
-        <v>544.9200432175602</v>
+        <v>595.7032803944956</v>
       </c>
       <c r="AD8" t="n">
-        <v>440282.212200928</v>
+        <v>481313.8392905902</v>
       </c>
       <c r="AE8" t="n">
-        <v>602413.5466136442</v>
+        <v>658554.8289853507</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.683013921062878e-06</v>
+        <v>4.58765480351894e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.675000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>544920.0432175602</v>
+        <v>595703.2803944956</v>
       </c>
     </row>
   </sheetData>
@@ -20354,28 +20354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.5925586345903</v>
+        <v>410.2495372344816</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.7468910616749</v>
+        <v>561.3215157764431</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.5289421603707</v>
+        <v>507.7497781304339</v>
       </c>
       <c r="AD2" t="n">
-        <v>361592.5586345903</v>
+        <v>410249.5372344817</v>
       </c>
       <c r="AE2" t="n">
-        <v>494746.8910616749</v>
+        <v>561321.5157764431</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304567563675131e-06</v>
+        <v>4.939749750793331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>447528.9421603706</v>
+        <v>507749.7781304339</v>
       </c>
     </row>
   </sheetData>
@@ -20651,28 +20651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.6788534691552</v>
+        <v>693.8629764650599</v>
       </c>
       <c r="AB2" t="n">
-        <v>872.5003397220283</v>
+        <v>949.3739354735961</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.2301318608751</v>
+        <v>858.7670195266825</v>
       </c>
       <c r="AD2" t="n">
-        <v>637678.8534691553</v>
+        <v>693862.9764650599</v>
       </c>
       <c r="AE2" t="n">
-        <v>872500.3397220284</v>
+        <v>949373.9354735961</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.12159028263251e-06</v>
+        <v>3.908886962882684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>789230.1318608751</v>
+        <v>858767.0195266824</v>
       </c>
     </row>
     <row r="3">
@@ -20757,28 +20757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.2867174443762</v>
+        <v>414.7144419986732</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.2203315226452</v>
+        <v>567.4305954525062</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.9529876019088</v>
+        <v>513.2758158163607</v>
       </c>
       <c r="AD3" t="n">
-        <v>377286.7174443762</v>
+        <v>414714.4419986733</v>
       </c>
       <c r="AE3" t="n">
-        <v>516220.3315226452</v>
+        <v>567430.5954525062</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.78687344238042e-06</v>
+        <v>5.134626301459043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.137500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>466952.9876019089</v>
+        <v>513275.8158163608</v>
       </c>
     </row>
     <row r="4">
@@ -20863,28 +20863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.2870539382999</v>
+        <v>409.7147784925969</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.3795713440446</v>
+        <v>560.5898352739056</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.7650999736867</v>
+        <v>507.0879281881386</v>
       </c>
       <c r="AD4" t="n">
-        <v>372287.0539382999</v>
+        <v>409714.7784925969</v>
       </c>
       <c r="AE4" t="n">
-        <v>509379.5713440446</v>
+        <v>560589.8352739055</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.809408807143604e-06</v>
+        <v>5.17614619068917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.072222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>460765.0999736867</v>
+        <v>507087.9281881386</v>
       </c>
     </row>
   </sheetData>
@@ -21160,28 +21160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>934.6273703746414</v>
+        <v>992.8247044740352</v>
       </c>
       <c r="AB2" t="n">
-        <v>1278.798400996098</v>
+        <v>1358.426560996064</v>
       </c>
       <c r="AC2" t="n">
-        <v>1156.751676409857</v>
+        <v>1228.780236578252</v>
       </c>
       <c r="AD2" t="n">
-        <v>934627.3703746414</v>
+        <v>992824.7044740352</v>
       </c>
       <c r="AE2" t="n">
-        <v>1278798.400996098</v>
+        <v>1358426.560996064</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.757434801002706e-06</v>
+        <v>3.139529017421335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>1156751.676409857</v>
+        <v>1228780.236578252</v>
       </c>
     </row>
     <row r="3">
@@ -21266,28 +21266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>490.2656433202239</v>
+        <v>538.7491236701642</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.8030821844168</v>
+        <v>737.1403189393992</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.7825774987741</v>
+        <v>666.7886814827575</v>
       </c>
       <c r="AD3" t="n">
-        <v>490265.6433202239</v>
+        <v>538749.1236701641</v>
       </c>
       <c r="AE3" t="n">
-        <v>670803.0821844168</v>
+        <v>737140.3189393992</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.507386849739771e-06</v>
+        <v>4.47926362227907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.709722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>606782.5774987742</v>
+        <v>666788.6814827576</v>
       </c>
     </row>
     <row r="4">
@@ -21372,28 +21372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>390.3156340998744</v>
+        <v>429.170691063484</v>
       </c>
       <c r="AB4" t="n">
-        <v>534.0470700859337</v>
+        <v>587.2102731876777</v>
       </c>
       <c r="AC4" t="n">
-        <v>483.0783672567018</v>
+        <v>531.1677488694397</v>
       </c>
       <c r="AD4" t="n">
-        <v>390315.6340998745</v>
+        <v>429170.691063484</v>
       </c>
       <c r="AE4" t="n">
-        <v>534047.0700859337</v>
+        <v>587210.2731876777</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.767118670392523e-06</v>
+        <v>4.943255565093532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.891666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>483078.3672567018</v>
+        <v>531167.7488694397</v>
       </c>
     </row>
     <row r="5">
@@ -21478,28 +21478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.8708232823332</v>
+        <v>426.7258802459426</v>
       </c>
       <c r="AB5" t="n">
-        <v>530.7019720679325</v>
+        <v>583.8651751696765</v>
       </c>
       <c r="AC5" t="n">
-        <v>480.0525206986641</v>
+        <v>528.141902311402</v>
       </c>
       <c r="AD5" t="n">
-        <v>387870.8232823331</v>
+        <v>426725.8802459426</v>
       </c>
       <c r="AE5" t="n">
-        <v>530701.9720679325</v>
+        <v>583865.1751696765</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.776709252147861e-06</v>
+        <v>4.960388439495277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.863888888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>480052.5206986641</v>
+        <v>528141.9023114019</v>
       </c>
     </row>
   </sheetData>
